--- a/master-jimpitan.xlsx
+++ b/master-jimpitan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ronda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D29C4B-6BB4-41F5-B6CA-8B1D417307FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB0C5E05-2000-4339-BE36-F8836E496843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
